--- a/resources/Report.xlsx
+++ b/resources/Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>საიდენტიფიკაციო/კოდი</t>
   </si>
@@ -47,31 +47,34 @@
     <t>კომენტარი</t>
   </si>
   <si>
-    <t>01025017219</t>
-  </si>
-  <si>
-    <t>595381173</t>
-  </si>
-  <si>
-    <t>ევექსი</t>
-  </si>
-  <si>
-    <t>5953811732</t>
-  </si>
-  <si>
-    <t>sergi.nebieridze@softgen.ge2</t>
+    <t>Laudantium quis vol</t>
+  </si>
+  <si>
+    <t>+1 (783) 392-9525</t>
+  </si>
+  <si>
+    <t>Logan Stein</t>
+  </si>
+  <si>
+    <t>+1 (192) 706-4142</t>
+  </si>
+  <si>
+    <t>xidi@mailinator.com</t>
+  </si>
+  <si>
+    <t>Pariatur Duis maior</t>
   </si>
   <si>
     <t>02/08/2022</t>
   </si>
   <si>
-    <t>09/08/2022</t>
-  </si>
-  <si>
-    <t>მუშავდება</t>
-  </si>
-  <si>
-    <t>სერგი ნებიერიძე</t>
+    <t>პოტენციური</t>
+  </si>
+  <si>
+    <t>beka</t>
+  </si>
+  <si>
+    <t>Ad magna saepe quis </t>
   </si>
 </sst>
 </file>
@@ -192,10 +195,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -207,7 +210,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Report.xlsx
+++ b/resources/Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>საიდენტიფიკაციო/კოდი</t>
   </si>
@@ -47,6 +47,39 @@
     <t>კომენტარი</t>
   </si>
   <si>
+    <t>Aut quia obcaecati d</t>
+  </si>
+  <si>
+    <t>+1 (292) 666-4629</t>
+  </si>
+  <si>
+    <t>Luke English</t>
+  </si>
+  <si>
+    <t>+1 (438) 672-7164</t>
+  </si>
+  <si>
+    <t>cydu@mailinator.com</t>
+  </si>
+  <si>
+    <t>Placeat deserunt do</t>
+  </si>
+  <si>
+    <t>10/07/2022</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>პოტენციური</t>
+  </si>
+  <si>
+    <t>beka</t>
+  </si>
+  <si>
+    <t>Nemo adipisci accusafewfeewf Nemo adipisci accusafewfeewf Nemo adipisci accusafewfeewf</t>
+  </si>
+  <si>
     <t>Laudantium quis vol</t>
   </si>
   <si>
@@ -68,13 +101,73 @@
     <t>02/08/2022</t>
   </si>
   <si>
-    <t>პოტენციური</t>
-  </si>
-  <si>
-    <t>beka</t>
-  </si>
-  <si>
     <t>Ad magna saepe quis </t>
+  </si>
+  <si>
+    <t>Architecto odio aliq</t>
+  </si>
+  <si>
+    <t>+1 (922) 579-7871</t>
+  </si>
+  <si>
+    <t>Burton Frederick</t>
+  </si>
+  <si>
+    <t>+1 (575) 673-8112</t>
+  </si>
+  <si>
+    <t>cacafamyqe@mailinator.com</t>
+  </si>
+  <si>
+    <t>Minim voluptatum id</t>
+  </si>
+  <si>
+    <t>მუშავდება</t>
+  </si>
+  <si>
+    <t>Doloribus eveniet e</t>
+  </si>
+  <si>
+    <t>Eu ipsum dolorem pe</t>
+  </si>
+  <si>
+    <t>+1 (858) 998-4257</t>
+  </si>
+  <si>
+    <t>Lev Armstrong</t>
+  </si>
+  <si>
+    <t>+1 (153) 164-8296</t>
+  </si>
+  <si>
+    <t>mide@mailinator.com</t>
+  </si>
+  <si>
+    <t>Vero consectetur ut</t>
+  </si>
+  <si>
+    <t>Vel exercitationem o</t>
+  </si>
+  <si>
+    <t>01025017219</t>
+  </si>
+  <si>
+    <t>595381173</t>
+  </si>
+  <si>
+    <t>ევექსი</t>
+  </si>
+  <si>
+    <t>5953811732</t>
+  </si>
+  <si>
+    <t>sergi.nebieridze@softgen.ge2</t>
+  </si>
+  <si>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t>სერგი ნებიერიძე</t>
   </si>
 </sst>
 </file>
@@ -124,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -201,16 +294,156 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="30" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="30" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="30" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="30" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
